--- a/Unity_ZZZ_URP/DataTables/Datas/#PlayerStateData.xlsx
+++ b/Unity_ZZZ_URP/DataTables/Datas/#PlayerStateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="11480"/>
+    <workbookView windowWidth="21650" windowHeight="9010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -47,6 +47,21 @@
     <t>on_move</t>
   </si>
   <si>
+    <t>do_move</t>
+  </si>
+  <si>
+    <t>on_stop</t>
+  </si>
+  <si>
+    <t>on_evade</t>
+  </si>
+  <si>
+    <t>on_atk</t>
+  </si>
+  <si>
+    <t>do_rotate</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -56,7 +71,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>(list#sep=|),float</t>
+  </si>
+  <si>
     <t>(list#sep=|),int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>##</t>
@@ -78,19 +99,146 @@
 前摇/后摇/下一个状态</t>
   </si>
   <si>
+    <t>移动旋转(是否接受鼠标)</t>
+  </si>
+  <si>
+    <t>当停止移动</t>
+  </si>
+  <si>
+    <t>当闪避</t>
+  </si>
+  <si>
+    <t>当进行普攻</t>
+  </si>
+  <si>
+    <t>小于该值
+可调整旋转</t>
+  </si>
+  <si>
     <t>待机</t>
   </si>
   <si>
-    <t>idle</t>
-  </si>
-  <si>
-    <t>1|1|1002</t>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>1|1|10021</t>
+  </si>
+  <si>
+    <t>10031|10032</t>
+  </si>
+  <si>
+    <t>1|1|10051</t>
+  </si>
+  <si>
+    <t>待机衔接跑</t>
+  </si>
+  <si>
+    <t>Run_Start</t>
   </si>
   <si>
     <t>跑</t>
   </si>
   <si>
-    <t>run</t>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>跑衔接待机</t>
+  </si>
+  <si>
+    <t>Run_End</t>
+  </si>
+  <si>
+    <t>向前,左,右,后闪避</t>
+  </si>
+  <si>
+    <t>Evade_Front</t>
+  </si>
+  <si>
+    <t>0|0.3|10022</t>
+  </si>
+  <si>
+    <t>无输入闪避</t>
+  </si>
+  <si>
+    <t>Evade_Back</t>
+  </si>
+  <si>
+    <t>0|0.5|10022</t>
+  </si>
+  <si>
+    <t>普攻1</t>
+  </si>
+  <si>
+    <t>Normal_Attack_1</t>
+  </si>
+  <si>
+    <t>0|0.9|10061</t>
+  </si>
+  <si>
+    <t>普攻1_结束</t>
+  </si>
+  <si>
+    <t>Normal_Attack_1_End</t>
+  </si>
+  <si>
+    <t>普攻2</t>
+  </si>
+  <si>
+    <t>Normal_Attack_2</t>
+  </si>
+  <si>
+    <t>0|0.9|10071</t>
+  </si>
+  <si>
+    <t>普攻2_结束</t>
+  </si>
+  <si>
+    <t>Normal_Attack_2_End</t>
+  </si>
+  <si>
+    <t>普攻3</t>
+  </si>
+  <si>
+    <t>Normal_Attack_3</t>
+  </si>
+  <si>
+    <t>0|0.9|10081</t>
+  </si>
+  <si>
+    <t>普攻3_结束</t>
+  </si>
+  <si>
+    <t>Normal_Attack_3_End</t>
+  </si>
+  <si>
+    <t>普攻4</t>
+  </si>
+  <si>
+    <t>Normal_Attack_4</t>
+  </si>
+  <si>
+    <t>0|0.9|10091</t>
+  </si>
+  <si>
+    <t>普攻4_结束</t>
+  </si>
+  <si>
+    <t>Normal_Attack_4_End</t>
+  </si>
+  <si>
+    <t>普攻4_Perfect</t>
+  </si>
+  <si>
+    <t>Normal_Attack_4_Perfect</t>
+  </si>
+  <si>
+    <t>0|0.9|10051</t>
+  </si>
+  <si>
+    <t>普攻4_Perfect_End</t>
+  </si>
+  <si>
+    <t>Normal_Attack_4_Perfect_End</t>
   </si>
 </sst>
 </file>
@@ -706,9 +854,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1032,20 +1183,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="10.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="26.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="18.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.8333333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,70 +1221,449 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="28" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="28" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4">
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5">
-        <v>1002</v>
+        <v>10021</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>10022</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>10023</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>10022</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10023</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <v>10023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>1001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8">
+        <v>10031</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>10032</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>1001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <v>10051</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>10052</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>10052</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>1001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <v>10061</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>10062</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13">
+        <v>10062</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>1001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14">
+        <v>10071</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>10072</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15">
+        <v>10072</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>1001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16">
+        <v>10081</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>10082</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>10082</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>1001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18">
+        <v>10091</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>10092</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>10092</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>1001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Unity_ZZZ_URP/DataTables/Datas/#PlayerStateData.xlsx
+++ b/Unity_ZZZ_URP/DataTables/Datas/#PlayerStateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21650" windowHeight="9010"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -854,12 +854,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1186,7 +1183,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1303,7 +1300,7 @@
       <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Unity_ZZZ_URP/DataTables/Datas/#PlayerStateData.xlsx
+++ b/Unity_ZZZ_URP/DataTables/Datas/#PlayerStateData.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="15800" windowHeight="8920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1183,7 +1183,9 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1467,6 +1469,9 @@
       <c r="J10" t="s">
         <v>47</v>
       </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11">
@@ -1510,6 +1515,9 @@
       <c r="J12" t="s">
         <v>52</v>
       </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13">
@@ -1553,6 +1561,9 @@
       <c r="J14" t="s">
         <v>57</v>
       </c>
+      <c r="K14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15">
@@ -1596,8 +1607,11 @@
       <c r="J16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="K16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>10082</v>
       </c>
@@ -1620,7 +1634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>10091</v>
       </c>
@@ -1639,8 +1653,11 @@
       <c r="J18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="K18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>10092</v>
       </c>
